--- a/ReadMe Support/Tables in ReadMe.xlsx
+++ b/ReadMe Support/Tables in ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/Github/ReadMe Support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3C75C-2FB2-B042-9F65-FB211B7114E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633A920-11B5-6F48-BDD8-842D084A27A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31120" yWindow="1320" windowWidth="28040" windowHeight="17440" xr2:uid="{6F4063CB-0874-6C41-89AE-ED10A26CD472}"/>
+    <workbookView xWindow="4820" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{6F4063CB-0874-6C41-89AE-ED10A26CD472}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Methdology</t>
   </si>
@@ -51,16 +51,19 @@
     <t>Getting the Most Rarely Produced Resources</t>
   </si>
   <si>
-    <t>The best player has the highest resource production ability, divided by the standard deviation between resource production.</t>
-  </si>
-  <si>
-    <t>The best player has the highest total resource production ability.</t>
-  </si>
-  <si>
-    <t>The best player has the highest resource production ability; but resource values are weighted based on resource values, which is dependent on how many resource tiles are available. For example, because there are always 4 lumber tiles available, but only 3 brick tiles available, 4 lumbers are worth the same as 3 bricks.</t>
-  </si>
-  <si>
-    <t>The best player has the highest resource production ability; but resource values are weighted based on resource values, which is dependent on how the board is setup randomly. For if there are less rock tiles available, like the example game above, the rocks are worth more.</t>
+    <t>Players are ranked by their total resource production ability.</t>
+  </si>
+  <si>
+    <t>Players are ranked by their total resource production ability, divided by the standard deviation between their resource productions.</t>
+  </si>
+  <si>
+    <t>Players are ranked by their resource production ability; but resource values are weighted depending on how many resource tiles are available. For example, because there are always 4 lumber tiles available, but only 3 brick tiles, 4 lumbers are worth the same as 3 bricks.</t>
+  </si>
+  <si>
+    <t>Players are ranked by their resource production ability; but resource values are weighted depending on how the board is setup randomly. For example, if there are less rock tiles available, like the example game above, then rocks are worth more.</t>
+  </si>
+  <si>
+    <t>Players are ranked by their resource production ability; but resource values are weighted depending on what resources are occupied by all players. For example, if rocks are rare (like the example game), but still occupied more than another resource (even after taking probability into account), rock's value will be driven down.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,15 +448,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -472,9 +475,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ReadMe Support/Tables in ReadMe.xlsx
+++ b/ReadMe Support/Tables in ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/Github/ReadMe Support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3633A920-11B5-6F48-BDD8-842D084A27A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D687C-408C-5148-8149-6C70891BCA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{6F4063CB-0874-6C41-89AE-ED10A26CD472}"/>
+    <workbookView xWindow="-30120" yWindow="2700" windowWidth="28040" windowHeight="17440" xr2:uid="{6F4063CB-0874-6C41-89AE-ED10A26CD472}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Methdology</t>
-  </si>
-  <si>
-    <t>Assumption &amp; Calculation</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Getting the Most Resources</t>
   </si>
@@ -60,18 +51,123 @@
     <t>Players are ranked by their resource production ability; but resource values are weighted depending on how many resource tiles are available. For example, because there are always 4 lumber tiles available, but only 3 brick tiles, 4 lumbers are worth the same as 3 bricks.</t>
   </si>
   <si>
-    <t>Players are ranked by their resource production ability; but resource values are weighted depending on how the board is setup randomly. For example, if there are less rock tiles available, like the example game above, then rocks are worth more.</t>
-  </si>
-  <si>
     <t>Players are ranked by their resource production ability; but resource values are weighted depending on what resources are occupied by all players. For example, if rocks are rare (like the example game), but still occupied more than another resource (even after taking probability into account), rock's value will be driven down.</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Sample Calculation for Orange</t>
+  </si>
+  <si>
+    <t>1 (0.583)</t>
+  </si>
+  <si>
+    <t>4 (0.500)</t>
+  </si>
+  <si>
+    <t>3 (0.528)</t>
+  </si>
+  <si>
+    <t>2 (0.556)</t>
+  </si>
+  <si>
+    <t>Orange's Rank (and Score)</t>
+  </si>
+  <si>
+    <t>Black's Rank (and Score)</t>
+  </si>
+  <si>
+    <t>Blue's Rank (and Score)</t>
+  </si>
+  <si>
+    <t>Red's Rank (and Score)</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Players are ranked by their resource production ability; but resource values are weighted depending on how the board is set up randomly. For example, if there are less rock tiles available, like the example game above, then rocks are worth more.</t>
+  </si>
+  <si>
+    <t>10 brick has probability of 0.0833
+8 rock has probability of 0.1389
+3 sheep has probability of 0.0556
+3 wheat has probability of 0.0556
+5 lumber has probability of 0.1111
+8 lumber has probability of 0.1389
+Total probability (score) = 0.583</t>
+  </si>
+  <si>
+    <t>2 (1.592)</t>
+  </si>
+  <si>
+    <t>1 (2.654)</t>
+  </si>
+  <si>
+    <t>4 (1.440)</t>
+  </si>
+  <si>
+    <t>3 (1.534)</t>
+  </si>
+  <si>
+    <t>Total lumber production of 0.1111 + 0.1389 = 0.2500
+Total brick production of 0.08333
+Total sheep production of 0.0556
+Total wheat production of 0.0556
+Total rock production of 0.1389
+Mean of production = 0.1167
+SD of production = 0.0733
+Sharpe ratio = 0.1167 / 0.0733 = 1.592</t>
+  </si>
+  <si>
+    <t>1 (0.592)</t>
+  </si>
+  <si>
+    <t>4 (0.508)</t>
+  </si>
+  <si>
+    <t>3 (0.542)</t>
+  </si>
+  <si>
+    <t>2 (0.542)</t>
+  </si>
+  <si>
+    <t>2 (0.548)</t>
+  </si>
+  <si>
+    <t>4 (0.475)</t>
+  </si>
+  <si>
+    <t>1 (0.554)</t>
+  </si>
+  <si>
+    <t>3 (0.544)</t>
+  </si>
+  <si>
+    <t>2 (0.555)</t>
+  </si>
+  <si>
+    <t>4 (0.494)</t>
+  </si>
+  <si>
+    <t>1 (0.574)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,9 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,69 +517,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B3B2E-A21A-8848-9B15-604AB28B93AB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ReadMe Support/Tables in ReadMe.xlsx
+++ b/ReadMe Support/Tables in ReadMe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/Github/ReadMe Support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D687C-408C-5148-8149-6C70891BCA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00A4E4A-F5AD-724F-8FDF-4CBFC1C7B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30120" yWindow="2700" windowWidth="28040" windowHeight="17440" xr2:uid="{6F4063CB-0874-6C41-89AE-ED10A26CD472}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
